--- a/myFirstProjectTestNG/testData/TestData.xlsx
+++ b/myFirstProjectTestNG/testData/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://boozallen-my.sharepoint.com/personal/625337_bah_com/Documents/Documents/Personal/Trainings/Selenium/Workspaces/Feb2023/myFirstProjectTestNG/testData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c24972172fdc8387/Documentos/Personal/Trainings/Selenium/Workspaces/2023-Feb/myFirstProjectTestNG/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{0D687A42-F10F-41B8-8DD3-B59C526D522B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED298F43-BCF4-4EAD-8B7D-3C7CFFA4D610}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{0D687A42-F10F-41B8-8DD3-B59C526D522B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CC60600-8685-454C-8597-F60E33EE144D}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{40914548-F9A3-4D3F-B989-9A3EE95A24BE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{40914548-F9A3-4D3F-B989-9A3EE95A24BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Test-Data" sheetId="2" r:id="rId1"/>
@@ -161,6 +161,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -463,18 +467,18 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="50.73046875" customWidth="1"/>
+    <col min="2" max="2" width="17.86328125" customWidth="1"/>
+    <col min="3" max="3" width="20.265625" customWidth="1"/>
     <col min="4" max="4" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -488,7 +492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -500,7 +504,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -512,7 +516,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -524,7 +528,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -540,8 +544,8 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="xwy@gmail.com" xr:uid="{86E394C9-ACA0-4554-BF2A-253C2441F1ED}"/>
     <hyperlink ref="B3" r:id="rId2" display="xwy2@gmail.com" xr:uid="{748E0EA9-D9E1-4A5F-9AF6-4ADBD07A762E}"/>
-    <hyperlink ref="B4" r:id="rId3" display="xwy@gmail.com" xr:uid="{509477DC-8B5F-4C97-8006-0529EAC2D582}"/>
-    <hyperlink ref="B5" r:id="rId4" display="xwy2@gmail.com" xr:uid="{618FE8C9-63EE-4C40-94C6-9CA3C5CB8081}"/>
+    <hyperlink ref="B4" r:id="rId3" display="xwy@gmail.com" xr:uid="{06093BC6-009A-43F6-A9A0-15540D631191}"/>
+    <hyperlink ref="B5" r:id="rId4" display="xwy2@gmail.com" xr:uid="{D377E3ED-B97B-4463-A5B4-34F793FD896A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/myFirstProjectTestNG/testData/TestData.xlsx
+++ b/myFirstProjectTestNG/testData/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c24972172fdc8387/Documentos/Personal/Trainings/Selenium/Workspaces/2023-Feb/myFirstProjectTestNG/testData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\625337\OneDrive - BOOZ ALLEN HAMILTON\Documents\Personal\Trainings\Selenium\Workspaces\Feb2023\myFirstProjectTestNG\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{0D687A42-F10F-41B8-8DD3-B59C526D522B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CC60600-8685-454C-8597-F60E33EE144D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F625B96-0650-47C8-8B3E-B584E73B225B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{40914548-F9A3-4D3F-B989-9A3EE95A24BE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{40914548-F9A3-4D3F-B989-9A3EE95A24BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Test-Data" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Username</t>
   </si>
@@ -48,25 +48,19 @@
     <t>Result</t>
   </si>
   <si>
-    <t>Jesus1</t>
-  </si>
-  <si>
-    <t>Jesus2</t>
-  </si>
-  <si>
-    <t>rahulshettyacademy</t>
-  </si>
-  <si>
     <t>DataProviderTestExcel2</t>
   </si>
   <si>
     <t>DataProviderTestExcel1</t>
   </si>
   <si>
-    <t>Jesus3</t>
-  </si>
-  <si>
-    <t>Jesus4</t>
+    <t>chuy@bah.com</t>
+  </si>
+  <si>
+    <t>chuy2@bah.com</t>
+  </si>
+  <si>
+    <t>Hello1234!</t>
   </si>
 </sst>
 </file>
@@ -161,10 +155,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -464,21 +454,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4F97B8-C1E6-4777-A6D6-7948174E4994}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.73046875" customWidth="1"/>
-    <col min="2" max="2" width="17.86328125" customWidth="1"/>
-    <col min="3" max="3" width="20.265625" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
     <col min="4" max="4" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -492,60 +482,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="xwy@gmail.com" xr:uid="{86E394C9-ACA0-4554-BF2A-253C2441F1ED}"/>
-    <hyperlink ref="B3" r:id="rId2" display="xwy2@gmail.com" xr:uid="{748E0EA9-D9E1-4A5F-9AF6-4ADBD07A762E}"/>
-    <hyperlink ref="B4" r:id="rId3" display="xwy@gmail.com" xr:uid="{06093BC6-009A-43F6-A9A0-15540D631191}"/>
-    <hyperlink ref="B5" r:id="rId4" display="xwy2@gmail.com" xr:uid="{D377E3ED-B97B-4463-A5B4-34F793FD896A}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{86E394C9-ACA0-4554-BF2A-253C2441F1ED}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{29114309-1DC9-4DE8-A1FF-F3EEF9E1E1E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -553,6 +517,6 @@
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{d5fe813e-0caa-432a-b2ac-d555aa91bd1c}" enabled="0" method="" siteId="{d5fe813e-0caa-432a-b2ac-d555aa91bd1c}" removed="1"/>
+  <clbl:label id="{3de9faa6-9fe1-49b3-9a08-227a296b54a6}" enabled="1" method="Privileged" siteId="{d5fe813e-0caa-432a-b2ac-d555aa91bd1c}" contentBits="0" removed="0"/>
 </clbl:labelList>
 </file>